--- a/biology/Médecine/Quinazolinone/Quinazolinone.xlsx
+++ b/biology/Médecine/Quinazolinone/Quinazolinone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La quinazolinone est un composé hétérocyclique dérivé de la quinazoline portant un groupe carbonyle et de formule brute C8H6N2O. Il existe deux isomères de la quinazolinone, la 2-quinazolinone et la 4-quinazolinone, l'isomère 4 étant le plus commun.
 			2-quinazolinone
@@ -513,9 +525,11 @@
           <t>Dérivés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quinazolinones sont aussi une classe de médicaments de type hypnotique/sédatifs possédant un noyau de 4-quinazolinone. Elles auraient aussi un usage possible comme traitement contre le cancer[1]. On compte par exemple dans cette classe l'afloqualone, la cloroqualone et la diproqualone.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quinazolinones sont aussi une classe de médicaments de type hypnotique/sédatifs possédant un noyau de 4-quinazolinone. Elles auraient aussi un usage possible comme traitement contre le cancer. On compte par exemple dans cette classe l'afloqualone, la cloroqualone et la diproqualone.
 			Afloqualone
 			Cloroqualone
 			Diproqualone
